--- a/biology/Botanique/Hydatellaceae/Hydatellaceae.xlsx
+++ b/biology/Botanique/Hydatellaceae/Hydatellaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Hydatellacées est une petite famille (anciennement) de plantes monocotylédones.
 Ce sont des plantes herbacées, annuelles, à rosette, aquatiques avec des feuilles submergées et émergentes, autogames ou à pollinisation aquatique, de Nouvelle-Zélande et de l'ouest de l'Australie.
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre Hydatella lui-même issu de Hydat (eau, ampoule pleine d'eau) et du suffixe latin -ella (petite)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre Hydatella lui-même issu de Hydat (eau, ampoule pleine d'eau) et du suffixe latin -ella (petite).
 </t>
         </is>
       </c>
@@ -543,11 +557,13 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classification phylogénétique APG (1998)[2] et classification phylogénétique APG II (2003)[3] assignent cette famille à l'ordre Poales, placé sous Angiospermes→Monocotylédones→Commelinidées.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classification phylogénétique APG (1998) et classification phylogénétique APG II (2003) assignent cette famille à l'ordre Poales, placé sous Angiospermes→Monocotylédones→Commelinidées.
 Mais le Angiosperm Phylogeny Website [23 juin 2009] assigne cette famille dans l'ordre Nymphaeales, placé directement sous Angiospermes.
-En classification phylogénétique APG III (2009)[4] cette famille est placée dans l'ordre Nymphaeales.
+En classification phylogénétique APG III (2009) cette famille est placée dans l'ordre Nymphaeales.
 </t>
         </is>
       </c>
@@ -576,11 +592,13 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (16 mai 2010)[5] et NCBI  (16 mai 2010)[6] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (16 mai 2010) et NCBI  (16 mai 2010) :
 genre Trithuria Hook.f. (1858)
-Selon Angiosperm Phylogeny Website                        (16 mai 2010)[7] et DELTA Angio           (16 mai 2010)[8] :
+Selon Angiosperm Phylogeny Website                        (16 mai 2010) et DELTA Angio           (16 mai 2010) :
 genre Hydatella Diels
 genre Trithuria Hook.f.</t>
         </is>
@@ -610,9 +628,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (27 mars 2010)[9] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (27 mars 2010) :
 genre Trithuria Hook.f. (1858)
 Trithuria austinensis  D.D.Sokoloff, Remizowa, T.D.Macfarl. &amp; Rudall (2008)
 Trithuria australis  (Diels) D.D.Sokoloff, Remizowa, T.D.Macfarl. &amp; Rudall (2008)
@@ -627,7 +647,7 @@
 Trithuria polybracteata  D.A.Cooke ex D.D.Sokoloff, Remizowa, T.D.Macfarl. &amp; Rudall (2008)
 Trithuria submersa  Hook.f. (1858)
 Note: Kew Garden place toutes les espèces Hydatella sp. dans Trithuria.
-Selon NCBI  (27 mars 2010)[10] :
+Selon NCBI  (27 mars 2010) :
 genre Trithuria
 Trithuria filamentosa
 Trithuria inconspicua
